--- a/biology/Botanique/Site_historique_d'État_de_Yulee_Sugar_Mill_Ruins/Site_historique_d'État_de_Yulee_Sugar_Mill_Ruins.xlsx
+++ b/biology/Botanique/Site_historique_d'État_de_Yulee_Sugar_Mill_Ruins/Site_historique_d'État_de_Yulee_Sugar_Mill_Ruins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Site_historique_d%27%C3%89tat_de_Yulee_Sugar_Mill_Ruins</t>
+          <t>Site_historique_d'État_de_Yulee_Sugar_Mill_Ruins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Site historique d'État de Yulee Sugar Mill Ruins (en anglais : Yulee Sugar Mill Ruins State Historic Site) est situé dans le comté de Citrus dans l'État de Floride, au sud-est des États-Unis. Il s'agit d'une ancienne plantation de cannes à sucre d'une superficie de 2 063,9 hectares[1], qui appartenait au politicien David Levy Yulee.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Site historique d'État de Yulee Sugar Mill Ruins (en anglais : Yulee Sugar Mill Ruins State Historic Site) est situé dans le comté de Citrus dans l'État de Floride, au sud-est des États-Unis. Il s'agit d'une ancienne plantation de cannes à sucre d'une superficie de 2 063,9 hectares, qui appartenait au politicien David Levy Yulee.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Site_historique_d%27%C3%89tat_de_Yulee_Sugar_Mill_Ruins</t>
+          <t>Site_historique_d'État_de_Yulee_Sugar_Mill_Ruins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site abrite encore un moulin à vapeur pour le traitement du sucre. Il est composé d'une cheminée en pierres calcaire et d'une presse. Le moulin fonctionna de 1851 à 1864 et servit à ravitailler en sucre les troupes confédérées durant la Guerre de Sécession[1]. La mélasse fabriquée sur le site était également une matière première à la fabrication du rhum. Environ 1 000 esclaves travaillaient sur cette plantation où l'on récoltatit également du coton et des citrons.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site abrite encore un moulin à vapeur pour le traitement du sucre. Il est composé d'une cheminée en pierres calcaire et d'une presse. Le moulin fonctionna de 1851 à 1864 et servit à ravitailler en sucre les troupes confédérées durant la Guerre de Sécession. La mélasse fabriquée sur le site était également une matière première à la fabrication du rhum. Environ 1 000 esclaves travaillaient sur cette plantation où l'on récoltatit également du coton et des citrons.
 Le site a été ajouté le 12 août 1970 au Registre national des lieux historiques.
 </t>
         </is>
